--- a/classfiers/mega/svm/mega-svm-sigmoid-results.xlsx
+++ b/classfiers/mega/svm/mega-svm-sigmoid-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5402298850574713</v>
+        <v>0.5375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6962962962962962</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9690860215053764</v>
+        <v>0.9757934373318988</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9072164948453607</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9689740143369175</v>
+        <v>0.9679935449166218</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="D4" t="n">
-        <v>0.725</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9870495495495496</v>
+        <v>0.9873400302738405</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.425531914893617</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5970149253731344</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9099748341340654</v>
+        <v>0.9025732764552084</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.459016393442623</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6332646991535118</v>
+        <v>0.6949222512728773</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8688878137461881</v>
+        <v>0.8935465116279069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6446808510638299</v>
+        <v>0.5447145877378434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6769088219914828</v>
+        <v>0.5756594418758729</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8936698237358842</v>
+        <v>0.9057245080500893</v>
       </c>
     </row>
   </sheetData>
